--- a/oudelijn-9697.xlsx
+++ b/oudelijn-9697.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95528D8F-DF89-4DAB-8EEB-FE29DD4B7A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC3565-6E50-4275-AAAB-2E700CF9A977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21502" windowHeight="12975" xr2:uid="{7009315B-284E-4AD8-8DB3-89E19FE3382E}"/>
+    <workbookView xWindow="1275" yWindow="2280" windowWidth="21502" windowHeight="12975" xr2:uid="{7009315B-284E-4AD8-8DB3-89E19FE3382E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Naam</t>
   </si>
@@ -139,12 +139,128 @@
   <si>
     <t>Tabel 13: geen</t>
   </si>
+  <si>
+    <t>Internationale treinen</t>
+  </si>
+  <si>
+    <t>2461 Ledn-Gv</t>
+  </si>
+  <si>
+    <t>Tabel 50b: geen</t>
+  </si>
+  <si>
+    <t>Ledn v 12:03
+Gv a 12:13
+Gv v 12:14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ledn 11:58-12:14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tabel 10a*:
+[x] 3445</t>
+    </r>
+  </si>
+  <si>
+    <t>Tabel 10b:
+[x] 9309
+[x] 2132
+[x] 3432
+[x] 13943
+[x] 2632
+[x] 5432
+Tabel 14: geen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gv 12:03-12:19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tabel 10a*:
+[n] 3443
+[x] 5145
+Tabel 10b:
+[x] 3434
+[x] 5432
+[n] 5134
+[n] 2482</t>
+    </r>
+  </si>
+  <si>
+    <t>Tabel 11a*:
+[x] 5145</t>
+  </si>
+  <si>
+    <t>Tabel 11b:
+[x] 3434
+[x] 5432
+[n] 5134
+[n] 2482</t>
+  </si>
+  <si>
+    <t>Tabel 16:
+[x] 13730 &gt; 13733
+[x] 13733 &lt; 13730</t>
+  </si>
+  <si>
+    <t>Tabel 50a:
+[x] 1743
+[x] 9845</t>
+  </si>
+  <si>
+    <t>[x] 9309</t>
+  </si>
+  <si>
+    <t>geen data</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>- Ledn</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +268,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,17 +309,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,161 +646,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5674BAAF-E170-408A-A4B5-B02FF10566B8}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>